--- a/document/Bao giao website.xlsx
+++ b/document/Bao giao website.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Nội dung</t>
   </si>
@@ -27,45 +27,18 @@
     <t>Trang chủ</t>
   </si>
   <si>
-    <t>Gửi tin và chia sẻ bài viết</t>
-  </si>
-  <si>
-    <t>Gửi đóng góp ý kiến</t>
-  </si>
-  <si>
     <t>Trang quản trị</t>
   </si>
   <si>
     <t>Đăng nhập</t>
   </si>
   <si>
-    <t>Quản lý banner</t>
-  </si>
-  <si>
-    <t>Quản lý quảng cáo</t>
-  </si>
-  <si>
     <t>BẢNG BÁO GIÁ WEBSITE</t>
   </si>
   <si>
-    <t>Giao diện website</t>
-  </si>
-  <si>
-    <t>Thiết kế banner</t>
-  </si>
-  <si>
-    <t>Sơ đồ trang</t>
-  </si>
-  <si>
-    <t>Tính năng gửi thư điện tử</t>
-  </si>
-  <si>
     <t>Module tin tức sự kiện</t>
   </si>
   <si>
-    <t>Module lịch công tác</t>
-  </si>
-  <si>
     <t>Module đào tạo</t>
   </si>
   <si>
@@ -81,28 +54,10 @@
     <t>Trang web chi tiết bài viết</t>
   </si>
   <si>
-    <t>Đính kèm và hiển thị ảnh, file pdf các quyết định, công văn lên trang chủ.</t>
-  </si>
-  <si>
-    <t>Nhúng mã fanpage facebook</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Liên hệ</t>
-  </si>
-  <si>
     <t>Giới thiệu</t>
   </si>
   <si>
     <t>Danh bạ</t>
-  </si>
-  <si>
-    <t>Trao đổi &amp; hỏi đáp</t>
-  </si>
-  <si>
-    <t>Tương thích với mobile</t>
-  </si>
-  <si>
-    <t>Thông kê truy cập</t>
   </si>
   <si>
     <t>Liên kết website</t>
@@ -128,37 +83,32 @@
         - Xóa </t>
   </si>
   <si>
+    <t>Tổng cộng(chưa bao gồm thuế VAT)</t>
+  </si>
+  <si>
+    <t>Quản lý thời khóa biểu</t>
+  </si>
+  <si>
+    <t>Module tuyển sinh</t>
+  </si>
+  <si>
+    <t>Module tin tức nội bộ</t>
+  </si>
+  <si>
     <t>Quản lý phân quyền
         - Phân quyền xem bài viết
         - Phân quyền post bài viết
-        - Phân quyền phê duyệt bài viết
-        - Phân quyền quản lý người dùng
-        - Phân quyền cấu hình bannber, quảng cáo</t>
+        - Phân quyền phê duyệt bài viết</t>
   </si>
   <si>
     <t>Quản lý bài viết
         - Thêm mới bài viết
-        - Phê duyệt bài viết
         - Đăng tải, gỡ, xóa bài viết
         - Đánh dấu bài viết nổi bật, tin hot
-        - Phân nhóm bài viết theo các lĩnh vực, nhóm bài viết…
         - Tích hợp trình soạn thảo văn bản cho bài viết, chèn link web, ảnh...</t>
   </si>
   <si>
-    <t>Tổng cộng(chưa bao gồm thuế VAT)</t>
-  </si>
-  <si>
-    <t>Quản lý menu
-Cấu hình hiển thị menu</t>
-  </si>
-  <si>
-    <t>Quản lý thông báo</t>
-  </si>
-  <si>
-    <t>Quản lý thời khóa biểu</t>
-  </si>
-  <si>
-    <t>Module tuyển sinh</t>
+    <t>Trang web</t>
   </si>
 </sst>
 </file>
@@ -201,7 +151,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -248,64 +198,42 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -579,7 +507,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -587,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:E39"/>
+  <dimension ref="C2:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19:C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -601,348 +529,213 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+    </row>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C6" s="11"/>
+      <c r="D6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="4">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C7" s="11"/>
+      <c r="D7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="4">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C8" s="11"/>
+      <c r="D8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C9" s="11"/>
+      <c r="D9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="4">
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C10" s="11"/>
+      <c r="D10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="4">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C11" s="11"/>
+      <c r="D11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="4">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C12" s="11"/>
+      <c r="D12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-    </row>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C4" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C5" s="7" t="s">
+      <c r="E12" s="4">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C13" s="11"/>
+      <c r="D13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="4">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C14" s="11"/>
+      <c r="D14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E14" s="4">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C15" s="11"/>
+      <c r="D15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E15" s="4">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="16" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C16" s="11"/>
+      <c r="D16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="4">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C17" s="11"/>
+      <c r="D17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="4">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C18" s="11"/>
+      <c r="D18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="4">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C19" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="4">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="C20" s="11"/>
+      <c r="D20" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="4">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="C21" s="11"/>
+      <c r="D21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="4">
         <v>2500000</v>
       </c>
     </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C6" s="8"/>
-      <c r="D6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="5">
+    <row r="22" spans="3:5" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="C22" s="11"/>
+      <c r="D22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="4">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C23" s="11"/>
+      <c r="D23" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="4">
         <v>1000000</v>
       </c>
     </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C7" s="8"/>
-      <c r="D7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="5">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C8" s="8"/>
-      <c r="D8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="5">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C9" s="8"/>
-      <c r="D9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="5">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C10" s="8"/>
-      <c r="D10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="5">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C11" s="8"/>
-      <c r="D11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="5">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C12" s="8"/>
-      <c r="D12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="5">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="13" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C13" s="8"/>
-      <c r="D13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="5">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="14" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C14" s="8"/>
-      <c r="D14" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="5">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="15" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C15" s="8"/>
-      <c r="D15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="5">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="16" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C16" s="8"/>
-      <c r="D16" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="5">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C17" s="8"/>
-      <c r="D17" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="5">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C18" s="8"/>
-      <c r="D18" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="5">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C19" s="8"/>
-      <c r="D19" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="5">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C20" s="8"/>
-      <c r="D20" s="4" t="s">
+    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C24" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="5">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C21" s="8"/>
-      <c r="D21" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" s="5">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C22" s="8"/>
-      <c r="D22" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" s="5">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C23" s="8"/>
-      <c r="D23" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" s="5">
-        <v>2000000</v>
-      </c>
-    </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C24" s="8"/>
-      <c r="D24" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24" s="5">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C25" s="8"/>
-      <c r="D25" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E25" s="5">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C26" s="8"/>
-      <c r="D26" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E26" s="5">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C27" s="8"/>
-      <c r="D27" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E27" s="5">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C28" s="8"/>
-      <c r="D28" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E28" s="5">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C29" s="9"/>
-      <c r="D29" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E29" s="5">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C30" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E30" s="5">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="31" spans="3:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="C31" s="8"/>
-      <c r="D31" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E31" s="5">
-        <v>2500000</v>
-      </c>
-    </row>
-    <row r="32" spans="3:5" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="C32" s="8"/>
-      <c r="D32" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E32" s="5">
-        <v>4500000</v>
-      </c>
-    </row>
-    <row r="33" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C33" s="8"/>
-      <c r="D33" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E33" s="5">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="34" spans="3:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C34" s="8"/>
-      <c r="D34" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E34" s="5">
-        <v>3500000</v>
-      </c>
-    </row>
-    <row r="35" spans="3:5" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="C35" s="8"/>
-      <c r="D35" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E35" s="5">
-        <v>4500000</v>
-      </c>
-    </row>
-    <row r="36" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C36" s="8"/>
-      <c r="D36" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="E36" s="5">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="37" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C37" s="8"/>
-      <c r="D37" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E37" s="5">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="38" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C38" s="8"/>
-      <c r="D38" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E38" s="5">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C39" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D39" s="13"/>
-      <c r="E39" s="14">
-        <f>SUM(E5:E38)</f>
-        <v>39500000</v>
+      <c r="D24" s="12"/>
+      <c r="E24" s="8">
+        <f>SUM(E5:E23)</f>
+        <v>19500000</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="C5:C29"/>
-    <mergeCell ref="C30:C38"/>
-    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C5:C18"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="C24:D24"/>
     <mergeCell ref="C2:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
